--- a/notebooks/abm_calibration/abm_calibration_results_2.xlsx
+++ b/notebooks/abm_calibration/abm_calibration_results_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,30 +491,40 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>inv_lambda</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>inv_volume</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>mm_spread</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>n_flips</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>n_mm</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>n_random</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>n_trend</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>loss</t>
         </is>
@@ -573,7 +583,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.200232150753306</v>
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.2934807046899801</v>
       </c>
     </row>
     <row r="3">
@@ -581,55 +597,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424.2149804855165</v>
+        <v>561.4264449815297</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2973215433355033</v>
+        <v>-0.1698441523799241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2199601501585018</v>
+        <v>-0.0329467670677191</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1489178337782724</v>
+        <v>-0.08963709925299478</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1268011329402901</v>
+        <v>0.1253629957304641</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08600362832953899</v>
+        <v>-0.07526452581085086</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3010047962987193</v>
+        <v>0.2183892240892559</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2600545317498423</v>
+        <v>0.0389775744260536</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2034471924254766</v>
+        <v>0.1749566666983142</v>
       </c>
       <c r="K3" t="n">
-        <v>0.152793190477248</v>
+        <v>0.1726330963993989</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09887615418047421</v>
+        <v>0.1322975892264235</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01</v>
+        <v>0.0025</v>
       </c>
       <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.302305334827407</v>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.6773406236054997</v>
       </c>
     </row>
     <row r="4">
@@ -637,55 +659,61 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>185.4973486956509</v>
+        <v>832.041461067784</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3767700639153929</v>
+        <v>-0.1735882018287363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0910734251012407</v>
+        <v>0.0003090786977039111</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1643493871863738</v>
+        <v>-0.09151351854993378</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1747056902842672</v>
+        <v>0.1302115963632047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1589213331526124</v>
+        <v>-0.06631475874869106</v>
       </c>
       <c r="H4" t="n">
-        <v>0.534824110567519</v>
+        <v>0.1594648639082482</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4265991100963739</v>
+        <v>-0.03199940940295123</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3876926670441134</v>
+        <v>0.1223694856570521</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2922351608715759</v>
+        <v>0.1224466166779204</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2486758185564203</v>
+        <v>0.0450960240081585</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01</v>
+        <v>0.0025</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.232929347701505</v>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.708026768493016</v>
       </c>
     </row>
     <row r="5">
@@ -693,55 +721,6075 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>401.5817629553463</v>
+        <v>1409.12373482931</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07977577865306062</v>
+        <v>-0.1366664620393732</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09571509882123083</v>
+        <v>-0.1019657966999709</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07121325730594349</v>
+        <v>-0.1806378479233648</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02373527081552074</v>
+        <v>0.1896796961959281</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09224747511296351</v>
+        <v>0.03957450074856876</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2105861648907483</v>
+        <v>0.1170777533090453</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1796084569051747</v>
+        <v>0.0763697235277738</v>
       </c>
       <c r="J5" t="n">
-        <v>0.139803828126057</v>
+        <v>0.1783925877506417</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1272800940624283</v>
+        <v>0.2232296819865073</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1016159134461824</v>
+        <v>0.1365565059660041</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01</v>
+        <v>0.0025</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.543585109021781</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>138.821593501722</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3142675932766662</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.08380372975781458</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.09811077166345977</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0780853398682837</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.04503783411028836</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2800491464787157</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05088578588783773</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1105519152390997</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1312552869167052</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.08209540974859864</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.0410587541999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>445.944412599357</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.369595230889304</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.002480500318609027</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001460612619031056</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.1439972654754368</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2752788936222072</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3563845906417153</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.03281919800423094</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.01364509085409256</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1736903403998663</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2951227325585644</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.169123010082379</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>709.0599609523504</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.1402763958316589</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01141867477222859</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03332145751039867</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1990168019370332</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1962739148925594</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1625562955580979</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.01905328128524969</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.002138862667000719</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3087113169756369</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2331431387773117</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.311259026527925</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>806.035753889909</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1868987983717215</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.01019730054563558</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.09087837773516128</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1197232710387586</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03608240060659028</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2097770238798987</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1681981440422092</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.05451636944955491</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1273788923979667</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.141145254586438</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.6206145215613881</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1343.794989758413</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.2185986143729101</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1074943176028142</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.005562879968758008</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.1856224676746905</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1983823192909993</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1888215861053077</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.05712625509956168</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0008710216821592791</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2250162144936108</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2663582412160901</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.51445509302754</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1364.099891766602</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.06408876640587564</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.01150262251130002</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002508774235912126</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.08431375578395318</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.0547264305256977</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1386337161570455</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.06385003232167522</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.08053150362180665</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.02184898755684176</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1679058559496327</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
         <v>1</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.3367722141800253</v>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.836966133563861</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1325.076125818598</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.03893789694052793</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.08859187637690846</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01256108447410677</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.003336533576472632</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.08543914610715962</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.03339264826669477</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.03300030517428611</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.03934181247714663</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.07601501894574315</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2509687425699867</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.7418484863412764</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>920.0775808535752</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.2486251956148835</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.06084412013056764</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.01981626243211627</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.01556046617695693</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.155018025713609</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2341196328557283</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.06506812327697366</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.007607117357632337</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.009204207790722048</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.240812857305817</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.869695268686362</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1339.94641892672</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.03459274655869578</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.2188851943076127</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.002497560514048082</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.02531741548680529</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.0786697140326728</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04708550134083322</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2066168898496258</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.03228415213219045</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01092352855758639</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1184047410818916</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.513556565883774</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>657.0917562568939</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.3897964182498229</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.001096016083454303</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.008129505888357673</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.00458237490622668</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.002919022977302716</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3806858802625692</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.02000431388504574</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01740950027806876</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.01215628143783205</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.01766054557221567</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.380650369463203</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>549.3626091050996</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.3880588771348987</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.01298681397761261</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001101598075366183</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0004233279916225548</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0005491203614330744</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4029949885462244</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.01186988117106767</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.02608298312139758</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.02473435169801496</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01374843404866724</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.460126370522549</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2199.626100180765</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.1540871732660019</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.05498600070610601</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.003751942848041895</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.001412214330337677</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01571041779981443</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1363324729261849</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.008612225087873846</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.06560453781325326</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.06659471984208803</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.03020775155535496</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.145220271476827</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3736.069552051598</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.02877765420059495</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.002891595309794376</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.01429728658092894</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.06770161282196603</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.009005296897842751</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.005087966098283881</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04358364257604332</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.01532548748503207</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0637174103625244</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.02397953069277173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.078612481983688</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2348.464988062669</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01546983198178855</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.03459354674880886</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.03845827116241808</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.006469936363739149</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.0005865186666985503</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1384549489335981</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.02240100292072991</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.01104616002902037</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.0432043888894857</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.05455004267373349</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.9856602920959767</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2402.511568716814</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.008280124536006019</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.001737345506928543</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.005546488550230357</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0021148084666229</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0009955752414198369</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.03508756464144901</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.03482194533864425</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.03826050670459696</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.05766826928033254</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.06109506041018908</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.184489898809675</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1806.308398154375</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.06156487533308154</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.006045068429314474</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.1118722752029574</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02142229837641284</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.008384779680886025</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.005359066469343862</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.08288294341576531</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.04985580685725072</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.05715073470887595</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.06270637961901894</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.076789961193682</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1676.656330665526</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.02756650032362992</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.02146626878855758</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.01636873629635727</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01164535800084149</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.00442932309437017</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1928026601158153</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.05922051128680712</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01380033261702317</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.01334661975361413</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.03361639681072558</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>7</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.4708861579601683</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1541.963248695986</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.002393431041185656</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.001154391820712014</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.120330019748123</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001322396436649931</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02569176877147562</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.04652956301034127</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.04785950994296021</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.08754751931807912</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.05647895725793566</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.05878794197999054</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.8701634596390259</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2732.514538790106</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.004121831594334414</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.001720941825945745</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.004097224979859098</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1547192956977782</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.004834751513684338</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.03368048050112211</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.03956101530388922</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.03953489023303187</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2360189132140413</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.03003319404049003</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>8</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.654946111307945</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3432.871351111102</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.151402009927814</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.004744575454131815</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.0796083107369443</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.01894116136849122</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.003367700052762544</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.132998912911761</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.05630668373251126</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.04115153000303852</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.03480903295587113</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.05220396655920664</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.094223057156458</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5147.502721239354</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.03134744691738261</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.001498576686315402</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.001259537823193944</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.04913406381330707</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.01118863962506665</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.0005721267374394602</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.0541166066999249</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.04698774589503166</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1334964614363732</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.01701578119438061</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>8</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4.286073028796633</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1357.583841493825</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.122609364904112</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.04939054595511345</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.0497571398873163</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.07824912717567249</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.02652315905392273</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.09662383152883086</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.05961315540964445</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.151693936375521</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.14274983011371</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.1037415630102538</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.4278425363378543</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1229.369597393413</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1521873616780297</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.02859914995857503</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.03341275451373588</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1003908880705666</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.05763966298803717</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1492095449996511</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01186454234387311</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1248574676393853</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1293772216691704</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.09448633044177072</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.4694173726715441</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>409.5170780388056</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.2369175295953643</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.1293233881196847</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.1358402357045693</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1740343526020078</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0213785884721922</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2204971319088622</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1031735494985011</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2086843648830755</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2981860224324208</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.2072558011905999</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.709450943118121</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>790.1102707539069</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.09484952318336891</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.1265428719630653</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.1100031186693939</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01739948358568099</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04030844039618285</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1286597262828449</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1521292383815318</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1886620730814548</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1528049281790954</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1001566041831334</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.7848813706673989</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>548.9933320087616</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2960453606438855</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.01291062815199268</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.008445478490168093</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0694529654580328</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1344514753966791</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.279522877553215</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.09568234683634465</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.00488270067538027</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2269185922917383</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.2791488949055209</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.123021224944995</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>514.3191614503886</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.316213107660372</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.00629625943404287</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.002467772948264538</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.1334214245347249</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2374543311913122</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.3079807694487849</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.02490559211613883</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.002177135723959232</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1694089005060038</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.268098522815552</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.64751348591117</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>245.8093753396607</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.2962734813851212</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.1015242220749012</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.02354471198115263</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.2756219795400907</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4032911503025517</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2860558045066389</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.117564716276249</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.02334835158018526</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.3076099160490054</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.4406298904400593</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.431863516462249</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>918.5047892231019</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.2802620500538241</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.07252370223555472</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0006009107401489725</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.2771532872866874</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3791531840301484</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.2550321281464089</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.007272223591508219</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.007621860993698264</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3056879625572207</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.415533869566259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.110949639063781</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2124.792184860251</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.1733068802363476</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.004127155248502987</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.002294474094370368</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.02498713195398363</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.03981841119288827</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1644285251575615</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.02754848146609512</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.03081612077521051</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0288591445252783</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.1070438520647055</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.9749261454386966</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1505.524167944625</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.01993769914722373</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.005696297911258341</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001564666894796541</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.08276076405897241</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.005092369939897276</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.09030619491222242</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.01791619654096917</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.04210164581589734</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.06571886226330594</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1468599794064352</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.558279904820675</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>875.6527924569258</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.240709503189843</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.1165241433540527</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.008501983114504372</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0005583305623427678</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.2175665072354449</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.2383504726897998</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.09504193021105448</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.01807298935939856</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.02537315404413427</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.2242637634441154</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.205554916725973</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>546.3122288007196</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.1067754102708122</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.1188676604537229</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.04748797986544763</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.004802047030420952</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.155580694353393</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.07378506375392563</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.145493785290172</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0553600012442871</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.02894364881163167</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.2306695657469608</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.7351558364714651</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1289.91412324261</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.08715121491227996</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.000239256048237024</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.07777427001678802</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.006123900428606149</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.002134972880985181</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.04139677710763921</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.0581444919158855</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1506119704300871</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.04193700163193389</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.04438612345939501</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>6</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.7218823979123498</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>926.5004817570368</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.2795490889835763</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.002023613818141741</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.003343972177470934</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.008498925899357444</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.001933437252741382</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.2664484717237104</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.002605861750449784</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.01066025152107188</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.02352371273040964</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.004330399858170127</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>6</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.773093446384589</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2081.186175088473</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.226207515965206</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.05979055943228187</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.03952893029964171</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.00875457662184106</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.003634186212195508</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.2223151739488935</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.03216689929354951</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.06183517164105654</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.003789805144856947</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.01876533504969247</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>6</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.9889527841195325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3414.028099017242</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.09187108964464712</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.06827062272709408</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.01557331609290477</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.004317593224938255</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.006037750049118156</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.04843449929466487</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.01262831309364896</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.05850876841184298</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01580859260517083</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.03607711234391916</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>6</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.975631685627938</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4208.893730580997</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.003057390016196407</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.004348378127633722</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.007877078193349292</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.0892231816847617</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.01030510700599098</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.04529756209966219</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.04465196057638735</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.05629211871030786</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.05599920532764923</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.04082922692189551</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>7</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.850858051829263</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2946.920903859663</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.002553681502539411</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.001329541193201699</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.09419857415656985</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.02988945137235752</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.0004770912796463773</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.03589790894411406</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.04470666963090032</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.07799947499668726</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.07472829319482335</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.04055728004588931</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>7</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.582065849919547</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>34.12256289047186</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.1578165850019103</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.1359224344121299</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.02107292819865637</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.001129211942196801</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03253305518084498</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.09917334752765385</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.06023523190627345</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.08825506318147854</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.1110254233905668</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.02066741065679164</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>7</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.9940471933286589</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4297.458796893801</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.04082974299702345</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.002834098390981454</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.02611617281912408</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.07150501973967532</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.0177193604770678</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02322081530207226</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.05542720459183121</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.07009113908008137</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.1003212107945282</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.01584849320623771</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>7</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.905102631031092</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3796.385227861835</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.00127836075766628</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.02004527202156077</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.006564578570391198</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.05539400210710643</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.002512946640289187</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.01136942913720912</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.01469989386308854</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.02305304935732436</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.1671542731852575</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.0001371032423442304</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>8</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.295223404369307</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4430.002737362571</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01464270528603573</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0006801027411613852</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.06530073608641701</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.004186173684594761</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01995278430757662</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.02338831681681362</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.02895677242476707</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.03629338785354174</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.04606418851391099</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.06768434096804846</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>8</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.097929487881241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5577.028984081294</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.03709759378722931</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.001929203272327668</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.06381612194484576</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.008281903087814449</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.005787947879313448</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.009536326319050973</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.04214184866094967</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.02562063061721456</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.03617628840708254</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0497846202953179</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>8</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.882527770855773</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>129.1654411875323</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.08149098489645418</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.04215958133955135</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.01516871423183438</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.0001827427947124855</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.006569600402299272</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0551218673067554</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.06765754272454134</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.0355445545563074</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.08252390113935956</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.05531820888688442</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>8</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.4465258772271542</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>586.0052589093744</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.09019228906986923</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.06946987131368298</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.05630511194871182</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.05999848374104269</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.009356488605816324</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.133492296464208</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.07054749725637294</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.1745180444441206</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1231875252012476</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.09294490671135679</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.3024344389477719</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>712.003677581446</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.2554757134531478</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.01290106805016906</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.1215428513760825</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.232274325084877</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.1350248885800284</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.2579306892043063</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.02266758250512305</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1866263274152196</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.3269161074879906</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.1853751737833758</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.746555094202069</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>940.082138652078</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.05641355216013059</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.008756438369732885</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.2164630591184367</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.02362322693629284</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.008119241177338168</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.03225166391733984</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.109503001459062</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.24963553353184</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.05765575855002807</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.05800136893854773</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.794135946285</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>346.0441468775966</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.1328910624817707</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.02584979476675042</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.168990007451831</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.04991614637289858</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.01251396402124419</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.07833877626393863</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.07504535283303421</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.2256488401205417</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1251213309683721</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.002311705857072448</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.174239973667725</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>357.3262848013178</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.3281204693555478</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0002451271458618584</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.007351767187244001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.0899285422392482</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.1727516910290346</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.3039803793751201</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.007512617542668475</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.02967079954966725</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.1518219113239019</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.1852895302984685</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N55" t="n">
+        <v>5</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.262638316079196</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1638.32552505684</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.00672668504152501</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.003352710050136891</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.02390621664355283</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.06531335600082214</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.00212014238153349</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.009223937247546088</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.02423261677721354</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.03448742534762622</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.1621959754641019</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.01249025752970636</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.6675529972303703</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>426.5099748254115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.06712344856124992</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.1944720278099855</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.05042469831184284</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.1332990987925139</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.04131245641219799</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.06995933597825599</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.1587567780116689</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.00636438586968001</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1450421665353343</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.1371696739314505</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.140571322414277</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1354.604194426161</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.1196170396826276</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.004550495110668264</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.07608717043811479</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.1546571086345645</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.09972418668586058</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.1549838810677651</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.007577297360308757</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.03807680787676206</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2176357576715612</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.1904281608012015</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N58" t="n">
+        <v>5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.8259140319977391</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1649.527151858452</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.001414215014361675</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.06880804579692509</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.01394189982452828</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.01166547639375807</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.06790774218642696</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.06707097373414733</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.008295116771694243</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.08535749264316615</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.06244341996397738</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.1738009980551125</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.6991958407718047</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>843.1155005148956</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.00198477701528187</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.01689820782428235</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.02093829897108496</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.1309445735397629</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.1161705199573355</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.1031047949564566</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.05325871246712258</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.03090318194708421</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1244957644097233</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.2962173204759347</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.8601139951310433</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3212.787552184019</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.02861837369476906</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.0224119365413348</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.01215142461423011</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.07596615487761181</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.1286855010478085</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0905312371227274</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.04232529490412455</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.05581738377779337</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.01449225290467063</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.1831788564031443</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.92337398926269</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>109.8664365750345</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.3791874026741467</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.04786835528001975</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.06257181196738118</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.02883573953628615</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.275233044877048</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.4092261510813936</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.202775698175208</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.01777526252939041</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.006036635454646187</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.283727541859084</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.167359688537938</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>972.3677433578309</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.2565352036509159</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.009713177543872359</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.006509411572445513</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.01270507444888162</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.008773081498023269</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.244405304984688</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.004311573779460605</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.02003298941845326</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.005649826619562707</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.01922817475031221</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>6</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.7351597806724615</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1156.465074912908</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.05732368263197342</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.008974875764135429</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.007778855613691089</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.06056605837199426</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.01494126897245018</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.01106058208521525</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.05877271500418415</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.01049650023962729</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.06764992811237941</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.01248612148313841</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>6</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.2917667617530782</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1361.675954837458</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.1623687393987243</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.128006126838134</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.00628916582314127</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.007564669808679753</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.001838567300600915</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.141214460435934</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.1009767368759052</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.03104117165281647</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.007360464555833723</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.02952179844178846</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N65" t="n">
+        <v>5</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>6</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.814482137929878</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1313.453086297746</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.2031202287489539</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.09470519644983236</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.006524014232040567</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.001165574291522029</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.003604772365533694</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.1981531050318693</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.07171068697152946</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.02970905319316118</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.03602933261445302</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.01342254795946029</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>6</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.7586069424494781</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3398.045089107409</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.005557221934263668</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.001102914785735256</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.03301602043734067</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.07848528585353727</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.00487068862576838</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.0632929276243748</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.05775097755862421</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.04303622415897819</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.04401262704094781</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.05903135579832221</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>7</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.051749557365051</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>23.7034013317076</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.0003844731108733725</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.1790399949627184</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.0007025114378239096</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.006710234498348988</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.1015963737322876</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.1127682431032752</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.09189424015626332</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.1408545396024763</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-0.1260769236110736</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.07077023345155889</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N68" t="n">
+        <v>5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>7</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.57798467293258</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3781.463876150853</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.03503407211957327</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.07991378511192268</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.01345337819893816</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.001864467716512611</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.01094231115129199</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.004713908737725116</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.03112821265328287</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.05266608287484826</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.06813934051829708</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0441915623441277</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>7</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.381814306824817</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2451.168297787615</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.03646807629661356</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.01177687302788942</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.004840505932076785</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.008353880456084341</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.07900793441126941</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.001246876007347633</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.06827542433526863</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.005152482185927642</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.02428691583549322</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.06239545814158542</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>7</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.8782778997167603</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>172.3774851060329</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0133015340527483</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.004002099841764478</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.05369173450850945</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.005233862422039385</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.1255733469809711</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.07258966918613834</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.07553276936402728</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.06160300923228016</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.0710750690930763</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.07264297652764273</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>8</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.7577171289318987</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3990.297613557357</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.003067494830027461</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.001766012553709622</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.05888874508103258</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.005254017218821218</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.01121469051698763</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.02905275517405844</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.04099819040735188</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.04119934675282214</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.04082014875110349</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.06061204191748543</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>8</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.554162790038823</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5390.067558651866</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.03663411507752796</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.003259405101368301</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.006724961035686894</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.001974064176043104</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01630543718204186</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.01354047899134774</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.05830044479211635</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.004298188688375023</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.01186947629193685</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0.03232335234565667</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N73" t="n">
+        <v>5</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>8</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="n">
+        <v>4.352696227592007</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5075.992133993238</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.03730756339883809</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.009192407070546676</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.05595884627305259</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.0130341449405078</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.007535242891002474</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.002359652050481836</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.03443416998652454</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.01732900136543751</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.0337829156722087</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.05852566314297836</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>8</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="n">
+        <v>4.02531204588272</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>309.4112995071861</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.3057335818508392</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.02875462699172055</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.2192609946090626</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3713374264322306</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.191418989497782</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.3125692390675817</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.02001689971624783</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.2486434532725849</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.4501718466403176</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.2512403080888838</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3.971243341756002</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>415.832364659215</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.2529310795787977</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.03335037307238978</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.1355720618007621</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1390805532563314</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.08279888823922797</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.2764199052172905</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.007586636195887147</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.1811998302493055</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2313151443679747</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.08738365813749721</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.299620346887057</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1255.302670912001</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.175329651841955</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.01724590783619977</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.1418882570643779</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.006246161641338727</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.01463502233775196</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.05516319079998535</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.008918356476089209</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.200828061689892</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.04576039625970167</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.02481740506822083</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.8721817652495327</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>511.0816870155907</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.1218391750303703</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.2067918893549357</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.03335283629613845</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.07387616059729399</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.01384566428501097</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.04746412264716549</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.2058935739062054</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1385815325895907</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.1517025962138916</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0447133895749757</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N78" t="n">
+        <v>5</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.250142867536438</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1175.465247444782</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.1471108750743239</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.002287002303801333</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.01758852722156446</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.06442804838239648</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.08885702732069233</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.1713605565334135</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.01189161353616249</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.002517924454644958</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.1051863268286919</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.1325318371473369</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.5324363582814583</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>382.7046818018885</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.3193810204847414</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.0310452828582999</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.008435568352570887</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.1203066789397999</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.2372195189373059</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.3013558716297098</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.05560498437933342</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01845144178927918</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.1541447839320441</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.2585608240419253</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.426758416592131</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>149.6782490307158</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.2396618571624288</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.09160855235401812</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.02040191401425871</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.149167230815336</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.006906535132615242</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.1672207658312081</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.04231783343064728</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01609567202690783</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.3150968937693101</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.1255188509756443</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.203017985571748</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>732.0645055928364</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.1008434598247225</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.0945632538672163</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.05716378345073291</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.2182387522156359</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.1877991527978031</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.1232966554435817</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.04320339661169675</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.007780480291360204</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2280148151510491</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.2460553976858608</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.220190024538628</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>481.7787095154116</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.3469124186829685</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.005439957170173801</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.009827487108111675</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.01774238206187391</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.1677343079535193</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.3282903380212012</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.009899681546488317</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.02142883658941863</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.007951764004993787</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.2157141596951745</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.242673665529915</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>337.7749099678243</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.1498333955722247</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0393846582724077</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.005111872290811274</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.0487361710863518</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.01656191789954466</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.2411144389628746</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.05403658039315329</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.04313427443610449</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.1547554472755572</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.2265404559972672</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.4439879292750591</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2638.069566975102</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.03381076953455344</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.001038284809892458</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.05202305323206478</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.01468361010243007</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.05909579629301993</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.01174277731779513</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.05023359084621004</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.07932770265073416</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.001047595505469599</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.1644282137490469</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N85" t="n">
+        <v>5</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.9980928412310365</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1354.670351680519</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.09976384554570251</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.1578428046037309</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0.02173132026513169</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.00821304910895139</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.0976820134928286</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0743816354345031</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.1815788308121773</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01972886094918398</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-0.01706205666836739</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.1313831381742984</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.9677988104805111</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1273.126637338671</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.07106267471154255</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.00517821018017034</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.0511291761464138</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.003508430552153945</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.00336946691613932</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.01477499717509571</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.05509635440933655</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.1856747477538697</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-0.05544699411578383</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-0.04899602421425205</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>6</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.7193221746334522</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2227.065491560945</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.05000206160920808</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.04568425828953512</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0009659961239288469</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1088697035302844</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.02775922753593364</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.07874165698402834</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.03952955235777464</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01188916548225447</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.09939295729158241</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.09530726584207114</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>6</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.8022307103536839</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>636.6075968011012</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.2692860093662616</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.00687789583470575</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.0339818075773532</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.003572667358846089</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.009049036571712148</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.2465369252083</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.03646790655935269</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.05091964587584955</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-0.03055303817884578</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-0.04236557404011765</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>6</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.8167897836876749</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>488.1955073541349</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.2781864030093057</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.07843003298205486</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.001363576796674595</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0007719704044951265</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.03761010219145302</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.2630606886457699</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.03772897227734408</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.04939420382889628</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-0.04964944040268064</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.0513630387277528</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>6</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.9009622930070006</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1181.349488312859</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.005672774292878458</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.008467143291865202</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.03253181609194371</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.1207430602463538</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.007604890866535746</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-0.07437082500302412</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.1051452122613521</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.08517698532852926</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.09299628002815517</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-0.0835572860778951</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N91" t="n">
+        <v>5</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>7</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.9643931657859373</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1191.431935942022</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.008279941855175294</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.1192026953876189</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.00862390823927668</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.008606287529925302</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03389266962251414</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-0.06318373662269119</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.09653607856060686</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.08450474428802132</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.08332770474965276</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.08212690382466599</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>7</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.8777020928726019</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5203.463180430052</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.03631622554264425</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.005861228795302001</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.01031396954238136</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.04658066768695396</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.004697157315323555</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.0003151853997693752</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.04867815950890437</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.04090434076393715</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.03872807642294846</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.03126479137472254</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>7</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="n">
+        <v>4.223338194987607</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3690.981282419791</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.04168016990732929</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.002403427346674901</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.00536510479025162</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.05891527836840687</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.01458398892807078</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.005316064284813604</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-0.06532124641745049</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0380119936836451</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.05338647773416923</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-0.03436379835803302</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>7</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.255732390473181</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3041.525953399693</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.001127884996081315</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.003088108819030932</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.005075986500411883</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.046709809319063</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.000384750828840616</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.04660442896533012</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.04884895174471045</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.04579252524254442</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.15966924675382</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-0.04141258372887512</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>8</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.748318009850351</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1543.040421652642</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.01588611156696769</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.04093240009026652</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.001064935493495206</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.003456664719289437</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.007585279329208588</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-0.056508101831002</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.0350739232797397</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.06151873254215159</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.05356092570781865</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-0.04704505904854953</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>8</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.7324328063490422</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3281.117761138352</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.03936025596430848</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.008327771305720483</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.06747269171664905</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.01119768087448576</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.01257083800766665</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.01724334712579622</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.04939992753364329</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02668029528807732</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.04384395997788554</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.05171746267563174</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>8</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.822693685506105</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1259.067315499746</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.04368475847272859</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.01207385486875968</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.008111612294206774</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0236222089990607</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.109008210312414</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0143436972010409</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.06128611149693899</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.06867512093701988</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.008910231682448278</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.06465288706651423</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>8</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.5620118593125387</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>516.3475439169408</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.2576976417832935</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.006235176191153258</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.0970931887931563</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.153076775501099</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.1582652463020177</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.2160488322121701</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.003807262932177468</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.1486181996536882</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.167997085323344</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.155176198800714</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>2</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.077595706857188</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>896.5718379690045</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.08535552660468232</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.01502469442753888</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.2080353400798517</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.09406230858215933</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.07057779083250453</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.02156528135342967</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.05392402690516457</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2555487872131293</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.04290841326946117</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.02016322232765729</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N100" t="n">
+        <v>5</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.500477872341014</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>187.1514520762615</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.2256913783017891</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.04437406553258079</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.1440605730131255</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.01503445739380234</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.0002080857869742657</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.08807489121632281</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.02410351100231756</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.2710761036369927</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.09646778202969519</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.04531172727325226</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N101" t="n">
+        <v>5</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.113650670434934</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>122.6969145088646</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.08709615453451834</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.01548244978646852</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.1880735379011602</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.01094093011974481</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.01484985688527909</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.03266047766713147</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.1214583159217335</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.2281498213079845</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.04820450712451566</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-0.01117386809516042</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N102" t="n">
+        <v>5</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.537303417530725</v>
       </c>
     </row>
   </sheetData>
